--- a/web/src/main/resources/files/1.xlsx
+++ b/web/src/main/resources/files/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Byfly</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>wer personal ar</t>
+  </si>
+  <si>
+    <t>personal,personal!personall</t>
   </si>
 </sst>
 </file>
@@ -342,6 +345,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,11 +370,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -727,39 +730,39 @@
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="4"/>
@@ -781,41 +784,41 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="4"/>
@@ -837,37 +840,37 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="3"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4"/>
@@ -888,42 +891,42 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -952,7 +955,7 @@
       <c r="N15" s="10"/>
     </row>
     <row r="17" spans="4:4" ht="102.75" thickBot="1">
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -967,13 +970,18 @@
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="14" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
